--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.954676393695</v>
+        <v>46.48074800000001</v>
       </c>
       <c r="H2">
-        <v>41.954676393695</v>
+        <v>139.442244</v>
       </c>
       <c r="I2">
-        <v>0.1373453507485584</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="J2">
-        <v>0.1373453507485584</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.670085303259497</v>
+        <v>0.9159313333333333</v>
       </c>
       <c r="N2">
-        <v>0.670085303259497</v>
+        <v>2.747794</v>
       </c>
       <c r="O2">
-        <v>0.02849429230548853</v>
+        <v>0.03641350786393945</v>
       </c>
       <c r="P2">
-        <v>0.02849429230548853</v>
+        <v>0.03641350786393944</v>
       </c>
       <c r="Q2">
-        <v>28.11321205442318</v>
+        <v>42.57317348997067</v>
       </c>
       <c r="R2">
-        <v>28.11321205442318</v>
+        <v>383.158561409736</v>
       </c>
       <c r="S2">
-        <v>0.00391355857102927</v>
+        <v>0.005367148665716761</v>
       </c>
       <c r="T2">
-        <v>0.00391355857102927</v>
+        <v>0.005367148665716759</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.954676393695</v>
+        <v>46.48074800000001</v>
       </c>
       <c r="H3">
-        <v>41.954676393695</v>
+        <v>139.442244</v>
       </c>
       <c r="I3">
-        <v>0.1373453507485584</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="J3">
-        <v>0.1373453507485584</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.416639528447</v>
+        <v>10.56834633333333</v>
       </c>
       <c r="N3">
-        <v>10.416639528447</v>
+        <v>31.705039</v>
       </c>
       <c r="O3">
-        <v>0.4429507260055973</v>
+        <v>0.4201521973455823</v>
       </c>
       <c r="P3">
-        <v>0.4429507260055973</v>
+        <v>0.4201521973455822</v>
       </c>
       <c r="Q3">
-        <v>437.0267405257656</v>
+        <v>491.2246426963907</v>
       </c>
       <c r="R3">
-        <v>437.0267405257656</v>
+        <v>4421.021784267517</v>
       </c>
       <c r="S3">
-        <v>0.06083722282756732</v>
+        <v>0.06192809860031278</v>
       </c>
       <c r="T3">
-        <v>0.06083722282756732</v>
+        <v>0.06192809860031277</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.954676393695</v>
+        <v>46.48074800000001</v>
       </c>
       <c r="H4">
-        <v>41.954676393695</v>
+        <v>139.442244</v>
       </c>
       <c r="I4">
-        <v>0.1373453507485584</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="J4">
-        <v>0.1373453507485584</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>12.4297498389217</v>
+        <v>1.220967333333333</v>
       </c>
       <c r="N4">
-        <v>12.4297498389217</v>
+        <v>3.662902</v>
       </c>
       <c r="O4">
-        <v>0.5285549816889141</v>
+        <v>0.04854043308262539</v>
       </c>
       <c r="P4">
-        <v>0.5285549816889141</v>
+        <v>0.04854043308262537</v>
       </c>
       <c r="Q4">
-        <v>521.4861321465424</v>
+        <v>56.75147493689867</v>
       </c>
       <c r="R4">
-        <v>521.4861321465424</v>
+        <v>510.7632744320881</v>
       </c>
       <c r="S4">
-        <v>0.07259456934996175</v>
+        <v>0.00715459003911911</v>
       </c>
       <c r="T4">
-        <v>0.07259456934996175</v>
+        <v>0.007154590039119108</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>191.098315235944</v>
+        <v>46.48074800000001</v>
       </c>
       <c r="H5">
-        <v>191.098315235944</v>
+        <v>139.442244</v>
       </c>
       <c r="I5">
-        <v>0.6255909326351914</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="J5">
-        <v>0.6255909326351914</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.670085303259497</v>
+        <v>12.44836933333333</v>
       </c>
       <c r="N5">
-        <v>0.670085303259497</v>
+        <v>37.345108</v>
       </c>
       <c r="O5">
-        <v>0.02849429230548853</v>
+        <v>0.494893861707853</v>
       </c>
       <c r="P5">
-        <v>0.02849429230548853</v>
+        <v>0.4948938617078529</v>
       </c>
       <c r="Q5">
-        <v>128.0521725172565</v>
+        <v>578.6095179935947</v>
       </c>
       <c r="R5">
-        <v>128.0521725172565</v>
+        <v>5207.485661942353</v>
       </c>
       <c r="S5">
-        <v>0.01782577089817033</v>
+        <v>0.07294460449846253</v>
       </c>
       <c r="T5">
-        <v>0.01782577089817033</v>
+        <v>0.07294460449846252</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>191.098315235944</v>
+        <v>192.830597</v>
       </c>
       <c r="H6">
-        <v>191.098315235944</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I6">
-        <v>0.6255909326351914</v>
+        <v>0.6114823756165045</v>
       </c>
       <c r="J6">
-        <v>0.6255909326351914</v>
+        <v>0.6114823756165044</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.416639528447</v>
+        <v>0.9159313333333333</v>
       </c>
       <c r="N6">
-        <v>10.416639528447</v>
+        <v>2.747794</v>
       </c>
       <c r="O6">
-        <v>0.4429507260055973</v>
+        <v>0.03641350786393945</v>
       </c>
       <c r="P6">
-        <v>0.4429507260055973</v>
+        <v>0.03641350786393944</v>
       </c>
       <c r="Q6">
-        <v>1990.60226430636</v>
+        <v>176.6195858176727</v>
       </c>
       <c r="R6">
-        <v>1990.60226430636</v>
+        <v>1589.576272359054</v>
       </c>
       <c r="S6">
-        <v>0.2771059577932767</v>
+        <v>0.02226621829317197</v>
       </c>
       <c r="T6">
-        <v>0.2771059577932767</v>
+        <v>0.02226621829317195</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>191.098315235944</v>
+        <v>192.830597</v>
       </c>
       <c r="H7">
-        <v>191.098315235944</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I7">
-        <v>0.6255909326351914</v>
+        <v>0.6114823756165045</v>
       </c>
       <c r="J7">
-        <v>0.6255909326351914</v>
+        <v>0.6114823756165044</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.4297498389217</v>
+        <v>10.56834633333333</v>
       </c>
       <c r="N7">
-        <v>12.4297498389217</v>
+        <v>31.705039</v>
       </c>
       <c r="O7">
-        <v>0.5285549816889141</v>
+        <v>0.4201521973455823</v>
       </c>
       <c r="P7">
-        <v>0.5285549816889141</v>
+        <v>0.4201521973455822</v>
       </c>
       <c r="Q7">
-        <v>2375.304253022183</v>
+        <v>2037.900532759427</v>
       </c>
       <c r="R7">
-        <v>2375.304253022183</v>
+        <v>18341.10479483485</v>
       </c>
       <c r="S7">
-        <v>0.3306592039437443</v>
+        <v>0.2569156637533711</v>
       </c>
       <c r="T7">
-        <v>0.3306592039437443</v>
+        <v>0.256915663753371</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>57.5368862309677</v>
+        <v>192.830597</v>
       </c>
       <c r="H8">
-        <v>57.5368862309677</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I8">
-        <v>0.1883562095966909</v>
+        <v>0.6114823756165045</v>
       </c>
       <c r="J8">
-        <v>0.1883562095966909</v>
+        <v>0.6114823756165044</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.670085303259497</v>
+        <v>1.220967333333333</v>
       </c>
       <c r="N8">
-        <v>0.670085303259497</v>
+        <v>3.662902</v>
       </c>
       <c r="O8">
-        <v>0.02849429230548853</v>
+        <v>0.04854043308262539</v>
       </c>
       <c r="P8">
-        <v>0.02849429230548853</v>
+        <v>0.04854043308262537</v>
       </c>
       <c r="Q8">
-        <v>38.55462185868517</v>
+        <v>235.4398598041646</v>
       </c>
       <c r="R8">
-        <v>38.55462185868517</v>
+        <v>2118.958738237482</v>
       </c>
       <c r="S8">
-        <v>0.005367076893801976</v>
+        <v>0.02968161933481774</v>
       </c>
       <c r="T8">
-        <v>0.005367076893801976</v>
+        <v>0.02968161933481772</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>57.5368862309677</v>
+        <v>192.830597</v>
       </c>
       <c r="H9">
-        <v>57.5368862309677</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I9">
-        <v>0.1883562095966909</v>
+        <v>0.6114823756165045</v>
       </c>
       <c r="J9">
-        <v>0.1883562095966909</v>
+        <v>0.6114823756165044</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.416639528447</v>
+        <v>12.44836933333333</v>
       </c>
       <c r="N9">
-        <v>10.416639528447</v>
+        <v>37.345108</v>
       </c>
       <c r="O9">
-        <v>0.4429507260055973</v>
+        <v>0.494893861707853</v>
       </c>
       <c r="P9">
-        <v>0.4429507260055973</v>
+        <v>0.4948938617078529</v>
       </c>
       <c r="Q9">
-        <v>599.3410034572561</v>
+        <v>2400.426490223158</v>
       </c>
       <c r="R9">
-        <v>599.3410034572561</v>
+        <v>21603.83841200843</v>
       </c>
       <c r="S9">
-        <v>0.08343251978851669</v>
+        <v>0.3026188742351438</v>
       </c>
       <c r="T9">
-        <v>0.08343251978851669</v>
+        <v>0.3026188742351437</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>57.5368862309677</v>
+        <v>60.030993</v>
       </c>
       <c r="H10">
-        <v>57.5368862309677</v>
+        <v>180.092979</v>
       </c>
       <c r="I10">
-        <v>0.1883562095966909</v>
+        <v>0.1903634318482028</v>
       </c>
       <c r="J10">
-        <v>0.1883562095966909</v>
+        <v>0.1903634318482028</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.4297498389217</v>
+        <v>0.9159313333333333</v>
       </c>
       <c r="N10">
-        <v>12.4297498389217</v>
+        <v>2.747794</v>
       </c>
       <c r="O10">
-        <v>0.5285549816889141</v>
+        <v>0.03641350786393945</v>
       </c>
       <c r="P10">
-        <v>0.5285549816889141</v>
+        <v>0.03641350786393944</v>
       </c>
       <c r="Q10">
-        <v>715.1691023614269</v>
+        <v>54.984267459814</v>
       </c>
       <c r="R10">
-        <v>715.1691023614269</v>
+        <v>494.858407138326</v>
       </c>
       <c r="S10">
-        <v>0.09955661291437225</v>
+        <v>0.006931800322611035</v>
       </c>
       <c r="T10">
-        <v>0.09955661291437225</v>
+        <v>0.006931800322611032</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.8786084407789</v>
+        <v>60.030993</v>
       </c>
       <c r="H11">
-        <v>14.8786084407789</v>
+        <v>180.092979</v>
       </c>
       <c r="I11">
-        <v>0.04870750701955932</v>
+        <v>0.1903634318482028</v>
       </c>
       <c r="J11">
-        <v>0.04870750701955932</v>
+        <v>0.1903634318482028</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.670085303259497</v>
+        <v>10.56834633333333</v>
       </c>
       <c r="N11">
-        <v>0.670085303259497</v>
+        <v>31.705039</v>
       </c>
       <c r="O11">
-        <v>0.02849429230548853</v>
+        <v>0.4201521973455823</v>
       </c>
       <c r="P11">
-        <v>0.02849429230548853</v>
+        <v>0.4201521973455822</v>
       </c>
       <c r="Q11">
-        <v>9.969936849118641</v>
+        <v>634.428324757909</v>
       </c>
       <c r="R11">
-        <v>9.969936849118641</v>
+        <v>5709.854922821181</v>
       </c>
       <c r="S11">
-        <v>0.001387885942486958</v>
+        <v>0.07998161418526842</v>
       </c>
       <c r="T11">
-        <v>0.001387885942486958</v>
+        <v>0.07998161418526838</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.8786084407789</v>
+        <v>60.030993</v>
       </c>
       <c r="H12">
-        <v>14.8786084407789</v>
+        <v>180.092979</v>
       </c>
       <c r="I12">
-        <v>0.04870750701955932</v>
+        <v>0.1903634318482028</v>
       </c>
       <c r="J12">
-        <v>0.04870750701955932</v>
+        <v>0.1903634318482028</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>10.416639528447</v>
+        <v>1.220967333333333</v>
       </c>
       <c r="N12">
-        <v>10.416639528447</v>
+        <v>3.662902</v>
       </c>
       <c r="O12">
-        <v>0.4429507260055973</v>
+        <v>0.04854043308262539</v>
       </c>
       <c r="P12">
-        <v>0.4429507260055973</v>
+        <v>0.04854043308262537</v>
       </c>
       <c r="Q12">
-        <v>154.9851008125027</v>
+        <v>73.295881440562</v>
       </c>
       <c r="R12">
-        <v>154.9851008125027</v>
+        <v>659.6629329650581</v>
       </c>
       <c r="S12">
-        <v>0.02157502559623652</v>
+        <v>0.009240323425006606</v>
       </c>
       <c r="T12">
-        <v>0.02157502559623652</v>
+        <v>0.009240323425006603</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.8786084407789</v>
+        <v>60.030993</v>
       </c>
       <c r="H13">
-        <v>14.8786084407789</v>
+        <v>180.092979</v>
       </c>
       <c r="I13">
-        <v>0.04870750701955932</v>
+        <v>0.1903634318482028</v>
       </c>
       <c r="J13">
-        <v>0.04870750701955932</v>
+        <v>0.1903634318482028</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.4297498389217</v>
+        <v>12.44836933333333</v>
       </c>
       <c r="N13">
-        <v>12.4297498389217</v>
+        <v>37.345108</v>
       </c>
       <c r="O13">
-        <v>0.5285549816889141</v>
+        <v>0.494893861707853</v>
       </c>
       <c r="P13">
-        <v>0.5285549816889141</v>
+        <v>0.4948938617078529</v>
       </c>
       <c r="Q13">
-        <v>184.9373808701505</v>
+        <v>747.287972310748</v>
       </c>
       <c r="R13">
-        <v>184.9373808701505</v>
+        <v>6725.591750796733</v>
       </c>
       <c r="S13">
-        <v>0.02574459548083583</v>
+        <v>0.09420969391531678</v>
       </c>
       <c r="T13">
-        <v>0.02574459548083583</v>
+        <v>0.09420969391531675</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>16.00705666666667</v>
+      </c>
+      <c r="H14">
+        <v>48.02117</v>
+      </c>
+      <c r="I14">
+        <v>0.05075975073168155</v>
+      </c>
+      <c r="J14">
+        <v>0.05075975073168155</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9159313333333333</v>
+      </c>
+      <c r="N14">
+        <v>2.747794</v>
+      </c>
+      <c r="O14">
+        <v>0.03641350786393945</v>
+      </c>
+      <c r="P14">
+        <v>0.03641350786393944</v>
+      </c>
+      <c r="Q14">
+        <v>14.66136475544222</v>
+      </c>
+      <c r="R14">
+        <v>131.95228279898</v>
+      </c>
+      <c r="S14">
+        <v>0.001848340582439693</v>
+      </c>
+      <c r="T14">
+        <v>0.001848340582439692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>16.00705666666667</v>
+      </c>
+      <c r="H15">
+        <v>48.02117</v>
+      </c>
+      <c r="I15">
+        <v>0.05075975073168155</v>
+      </c>
+      <c r="J15">
+        <v>0.05075975073168155</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.56834633333333</v>
+      </c>
+      <c r="N15">
+        <v>31.705039</v>
+      </c>
+      <c r="O15">
+        <v>0.4201521973455823</v>
+      </c>
+      <c r="P15">
+        <v>0.4201521973455822</v>
+      </c>
+      <c r="Q15">
+        <v>169.1681186306255</v>
+      </c>
+      <c r="R15">
+        <v>1522.51306767563</v>
+      </c>
+      <c r="S15">
+        <v>0.02132682080663003</v>
+      </c>
+      <c r="T15">
+        <v>0.02132682080663003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>16.00705666666667</v>
+      </c>
+      <c r="H16">
+        <v>48.02117</v>
+      </c>
+      <c r="I16">
+        <v>0.05075975073168155</v>
+      </c>
+      <c r="J16">
+        <v>0.05075975073168155</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>1.220967333333333</v>
+      </c>
+      <c r="N16">
+        <v>3.662902</v>
+      </c>
+      <c r="O16">
+        <v>0.04854043308262539</v>
+      </c>
+      <c r="P16">
+        <v>0.04854043308262537</v>
+      </c>
+      <c r="Q16">
+        <v>19.54409329281556</v>
+      </c>
+      <c r="R16">
+        <v>175.89683963534</v>
+      </c>
+      <c r="S16">
+        <v>0.002463900283681934</v>
+      </c>
+      <c r="T16">
+        <v>0.002463900283681932</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>16.00705666666667</v>
+      </c>
+      <c r="H17">
+        <v>48.02117</v>
+      </c>
+      <c r="I17">
+        <v>0.05075975073168155</v>
+      </c>
+      <c r="J17">
+        <v>0.05075975073168155</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.44836933333333</v>
+      </c>
+      <c r="N17">
+        <v>37.345108</v>
+      </c>
+      <c r="O17">
+        <v>0.494893861707853</v>
+      </c>
+      <c r="P17">
+        <v>0.4948938617078529</v>
+      </c>
+      <c r="Q17">
+        <v>199.2617533262622</v>
+      </c>
+      <c r="R17">
+        <v>1793.35577993636</v>
+      </c>
+      <c r="S17">
+        <v>0.0251206890589299</v>
+      </c>
+      <c r="T17">
+        <v>0.02512068905892989</v>
       </c>
     </row>
   </sheetData>
